--- a/biology/Zoologie/Selatosomus_miegi/Selatosomus_miegi.xlsx
+++ b/biology/Zoologie/Selatosomus_miegi/Selatosomus_miegi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selatosomus miegi est une espèce fossile d'insectes de la famille des Elateridae, de la sous-famille des Dendrometrinae et du genre Selatosomus.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Selatosomus miegi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2],[3]. 
-Holotype fossile
-L'holotype R 624 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs ou (Kleinkems)[2].
-Étymologie
-L'épithète spécifique miegi rend hommage à la famille Mieg collectionneuse de cet insecte.
-Confirmation du genre
-En 2021, les paléontologues Robin Kundrata, Gabriela Pačková, Alexander S. Prosvirov et Johana Hoffmannova ont confirmé l'appartenance de l'espèce Selatosomus miegi au genre Selatosomus[4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Selatosomus miegi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -545,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[5],[note 2] : 
-« Élytre de forme allongée, à bords presque parallèles, se rapprochant à peine de la base jusqu'au tiers externe, puis le bord marginal se recourbe progressivement vers le sommet arrondi ; surface ornée de neuf stries ponctuées, lignes bien enfoncées, ponctuation très nette ; stries 3 et 4, 5 et 6, 7 et 8 se réunissent deux à deux à peu de distance du sommet. À la base, la strie 9 s'arrête à l'écusson, 8 et 7 se réunissent, 3 et 4 aussi ; les autres se terminent isolément. Les interstices présentent une ponctuation très fine et irrégulière[5]. »
-Dimensions
-La longueur est de 9,5 mm, et la largeur de 3,5 mm[5].
-Affinités
-« Le parcours des stries ponctuées justifie l'attribution de l'échantillon au g. Diacanthus Latreille. Il est très voisin de Diacanthus sutor Heer d'Oeningen (Ins. I 1847. p 136 pl II, fig 5). Il a la même taille, mais les élytres sont de forme plus élancée. L'élytre seul ne permet pas de faire la comparaison avec les Insectes actuels[5],[note 3]. »
+          <t>Holotype fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R 624 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs ou (Kleinkems).
 </t>
         </is>
       </c>
@@ -582,13 +590,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique miegi rend hommage à la famille Mieg collectionneuse de cet insecte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, les paléontologues Robin Kundrata, Gabriela Pačková, Alexander S. Prosvirov et Johana Hoffmannova ont confirmé l'appartenance de l'espèce Selatosomus miegi au genre Selatosomus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Élytre de forme allongée, à bords presque parallèles, se rapprochant à peine de la base jusqu'au tiers externe, puis le bord marginal se recourbe progressivement vers le sommet arrondi ; surface ornée de neuf stries ponctuées, lignes bien enfoncées, ponctuation très nette ; stries 3 et 4, 5 et 6, 7 et 8 se réunissent deux à deux à peu de distance du sommet. À la base, la strie 9 s'arrête à l'écusson, 8 et 7 se réunissent, 3 et 4 aussi ; les autres se terminent isolément. Les interstices présentent une ponctuation très fine et irrégulière. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur est de 9,5 mm, et la largeur de 3,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Le parcours des stries ponctuées justifie l'attribution de l'échantillon au g. Diacanthus Latreille. Il est très voisin de Diacanthus sutor Heer d'Oeningen (Ins. I 1847. p 136 pl II, fig 5). Il a la même taille, mais les élytres sont de forme plus élancée. L'élytre seul ne permet pas de faire la comparaison avec les Insectes actuels,[note 3]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selatosomus_miegi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Selatosomus vit sur les vieux pins et sous les pierres. Les larves vivent dans le bois en décomposition.[5]. »
+« Le g. Selatosomus vit sur les vieux pins et sous les pierres. Les larves vivent dans le bois en décomposition.. »
 </t>
         </is>
       </c>
